--- a/hierarchy/static/hierarchy/downloads/sub-product-template.xlsx
+++ b/hierarchy/static/hierarchy/downloads/sub-product-template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lee/Desktop/product/hierarchy/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lee/Desktop/product/hierarchy/static/hierarchy/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Igor Item Class</t>
   </si>
@@ -54,15 +54,9 @@
     <t>A</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>SAP &amp; E1</t>
   </si>
   <si>
-    <t>HAN</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -151,15 +145,6 @@
   </si>
   <si>
     <t>Existing Product Line Code</t>
-  </si>
-  <si>
-    <t>New Subproduct</t>
-  </si>
-  <si>
-    <t>NM7</t>
-  </si>
-  <si>
-    <t>New Subproduct2</t>
   </si>
 </sst>
 </file>
@@ -597,11 +582,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,7 +600,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -624,32 +609,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +631,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -680,52 +640,52 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -739,104 +699,104 @@
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
